--- a/biology/Histoire de la zoologie et de la botanique/Carlo_Amoretti/Carlo_Amoretti.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carlo_Amoretti/Carlo_Amoretti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’abbé Carlo Amoretti, né le 16 mars 1741 à Oneille (aujourd'hui Imperia) et mort le 24 mars 1816 à Milan, est un érudit et un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre, en 1756, dans l’Ordre des frères prêcheurs. Afin de compléter ses connaissances en théologie mais aussi en physique, il part à Pavie et à Parme. Il se consacre plus tard à l’enseignement et devient un partisan des réformes prônées par Guglielmo Du Tillot (1711-1774), un fin lettré de Parme, ministre des finances de 1749 à 1771.
 Mais Amoretti subit le contrecoup de l’échec que connaissent les mesures de Tillot. Son amitié avec Tillot, lui vaut l’inimitié des autorités ecclésiastiques. La disgrâce de Tillot oblige Amoretti à s’installer à Milan où il devient précepteur.
